--- a/DB פרויקט גמר.xlsx
+++ b/DB פרויקט גמר.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\שולחן העבודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B43E5-1FEF-4269-8984-6A7B36EA0BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7969D5-84B8-4E2D-AD7B-5518C94333E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{006797FA-86DD-4C78-9DEC-252C3A85810E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{006797FA-86DD-4C78-9DEC-252C3A85810E}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>טבלאות ב-DB</t>
   </si>
@@ -98,9 +87,6 @@
     <t>תאריך הצטרפות כלקוח Customer_Djoin</t>
   </si>
   <si>
-    <t>א"ק למקרה חירום Customer_Emergency</t>
-  </si>
-  <si>
     <t>לקוחות Customers</t>
   </si>
   <si>
@@ -110,9 +96,6 @@
     <t>נכסים Assets</t>
   </si>
   <si>
-    <t>סוג הנכס [דירה/רכב] Asset_Type</t>
-  </si>
-  <si>
     <t>מספר סידורי נכס Asset_ID</t>
   </si>
   <si>
@@ -125,9 +108,6 @@
     <t>בעלים Asset_Owner</t>
   </si>
   <si>
-    <t>צוות אחראי Asset_Charges</t>
-  </si>
-  <si>
     <t>מסלול טיפול בנכס [אקטיבי/ פסיבי] Asset_Path</t>
   </si>
   <si>
@@ -153,9 +133,6 @@
   </si>
   <si>
     <t>תעודת זהות Employee_Id</t>
-  </si>
-  <si>
-    <t>צוות Employee_Team</t>
   </si>
   <si>
     <t>מסלול - Active</t>
@@ -244,7 +221,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -355,19 +326,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,247 +660,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D856DFD-D192-4AF1-A588-5786CFA79F36}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
